--- a/biology/Zoologie/Jeholosauridae/Jeholosauridae.xlsx
+++ b/biology/Zoologie/Jeholosauridae/Jeholosauridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Jeholosauridae sont une famille de dinosaures ornithopodes comprenant les genres Jeholosaurus, Haya et Changchunsaurus.
 </t>
@@ -511,7 +523,9 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme Han et al. ont trouvé des similitudes entre Haya, Changchunsaurus et Jeholosaurus, ils ont nommé un clade Jeholosauridae.
 </t>
@@ -542,10 +556,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cladogramme ci-dessous est basé sur l'analyse de Malkovicky et al. (2011) :
-Selon Paleobiology Database                   (11 déc. 2014)[1] les genres Haya, Changchunsaurus, Jeholosaurus, Parksosaurus, Thescelosaurus sont à classer dans la famille des Thescelosauridae, et dans la sous-famille des Thescelosaurinae.
+Selon Paleobiology Database                   (11 déc. 2014) les genres Haya, Changchunsaurus, Jeholosaurus, Parksosaurus, Thescelosaurus sont à classer dans la famille des Thescelosauridae, et dans la sous-famille des Thescelosaurinae.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Feng-Lu Han, Paul M. Barrett, Richard J. Butler et Xing Xu, « Postcranial anatomy of Jeholosaurus shangyuanensis (Dinosauria, Ornithischia) from the Lower Cretaceous Yixian Formation of China », Journal of Vertebrate Paleontology, SVP et Taylor &amp; Francis, vol. 32, no 6,‎ novembre 2012, p. 1370-1395 (ISSN 0272-4634 et 1937-2809, OCLC 238100068, DOI 10.1080/02724634.2012.694385)</t>
         </is>
